--- a/medicine/Mort/Les_Thanatonautes/Les_Thanatonautes.xlsx
+++ b/medicine/Mort/Les_Thanatonautes/Les_Thanatonautes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Thanatonautes est un roman de Bernard Werber, mêlant science et fantastique, publié en 1994 aux Éditions Albin Michel. Le mot Thanatonaute est une combinaison des racines grecques Thanato signifiant « la mort[1] » et naute signifiant « navigateur[2] » soit, littéralement, « navigateur de la mort » ou « explorateur de la mort. »
-Le romancier a déclaré avoir produit quelques chapitres de son livre Les Thanatonautes par écriture automatique : « Certains passages ont été écrits en écriture automatique. C'est-à-dire qu'il n'y avait pas d'intention d'intégrer le récit à une intrigue, mes doigts couraient tout seul sur le clavier et je relisais après pour découvrir ce que j'avais écrit[3]. »
+Les Thanatonautes est un roman de Bernard Werber, mêlant science et fantastique, publié en 1994 aux Éditions Albin Michel. Le mot Thanatonaute est une combinaison des racines grecques Thanato signifiant « la mort » et naute signifiant « navigateur » soit, littéralement, « navigateur de la mort » ou « explorateur de la mort. »
+Le romancier a déclaré avoir produit quelques chapitres de son livre Les Thanatonautes par écriture automatique : « Certains passages ont été écrits en écriture automatique. C'est-à-dire qu'il n'y avait pas d'intention d'intégrer le récit à une intrigue, mes doigts couraient tout seul sur le clavier et je relisais après pour découvrir ce que j'avais écrit. »
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Pinson découvre la mort par son boucher monsieur Dupont, écrasé par une carcasse de bœuf charolais qui s'était inopinément décrochée.
 Autour des questions maladroites qu'il pose à sa mère, se développe une certaine curiosité à ce sujet.
@@ -572,39 +586,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michael Pinson
-5 ans : il découvre la mort avec M. Dupont son boucher et son arrière-grand-mère Aglaé, ne comprenant pas la gravité de celle-ci, ses parents lui donnent une gifle ; désormais Michael se forcera à pleurer.
+          <t>Michael Pinson</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 ans : il découvre la mort avec M. Dupont son boucher et son arrière-grand-mère Aglaé, ne comprenant pas la gravité de celle-ci, ses parents lui donnent une gifle ; désormais Michael se forcera à pleurer.
 7 ans : il se fait heurter par une voiture et meurt quelques instants. Première expérience personnelle de la mort.
 8 ans : il s'intéresse à la mort des autres à travers les médias. À l'enterrement de son oncle Norbert, il fait la rencontre de Raoul, qui va devenir son meilleur ami. Très cultivé il lui fait découvrir la mythologie égyptienne, il lui donne le courage de faire fuir les adeptes d'une secte sataniste, explore le service gériatrie d'un hôpital afin d'enquêter sur la mort. Trop originaux pour leurs camarades ils subissent leurs invectives.
 Tandis que les amis se séparent pour un long terme, la mère de Michael découvre son journal intime  que son frère Conrad va montrer à son école ce qui lui vaut moqueries et railleries.
 18 ans : il commence des études de médecine, avec comme spécialités l’anesthésie et la réanimation.
 32 ans : il retrouve son ami Raoul au cimetière du Père-Lachaise qui lui a fait des études de biologie, pratiquant des expériences sur l'hibernation des marmottes.
 Par la suite, après quelques réticences il rejoint l'équipe des thanatonautes et s'adonne à des expériences sur des détenus ; après quelques sacrifices, sa première réussite, Felix Kerboz lui permet d'accéder au succès. Amoureux d'Amandine, il finit par se marier à la scientifique Rose Solal, qu'il doit récupérer dans le royaume des morts à la suite de son assassinat, qui est aussi sa première expérience thanatonautique. Il est alors considéré au même titre que ses amis comme grand initié ; son ami lui apprend alors qu'il est orphelin et qu'une autre femme l'attend ailleurs. Michael décide néanmoins de ne pas tenir compte de ces informations. L'expérience thanatonautique finit alors par dégénérer, les anges décident d'y mettre fin en provoquant un accident de Boeing 747 et en effaçant la mémoire de tous à ce sujet. Ses amis et lui meurent dans l'accident.
-Raoul Razorbak
-Enfant, Raoul rencontre Michael Pinson au cimetière du Père-Lachaise à l'enterrement de son oncle Norbert alors qu'il est lui-même en train de se recueillir sur la tombe de son défunt père Francis Razorbak. Très cultivé, il lui fait découvrir la mythologie égyptienne ainsi que les joies de la lecture. Ils affrontent ensemble une secte de satanistes fréquentant le cimetière et décident d'explorer la mort en enquêtant au service gériatrique d'un hôpital. Son originalité lui vaut d'être le mouton noir de ses camarades. Par la suite, les deux amis se séparent alors une vingtaine d'années avant de se retrouver. Raoul est alors chercheur en biologie et pratique des expériences sur l'hibernation des marmottes. À la suite de la tentative d'assassinat du président Lucinder, il est engagé par celui-ci afin de mener des expériences sur les EMI sur les détenus de la prison de Fleury-Merogis.
-Il va sacrifier beaucoup de vies humaines avant de réussir, avec l'aide réticente de son ami Michael, et de la belle infirmière Amandine. Il a tout d'abord une liaison avec Amandine puis se marie avec Stefania lors d'une double cérémonie avec son ami Michael. Par des confidences de Satan, il découvre la raison du suicide de son père ainsi que des informations douloureuses sur le passé de Michael. Ne supportant pas ces confidences, il plonge profondément dans l'alcool. Stefania finit par le quitter pour ensuite rejoindre un mouvement sataniste. Il est finalement tué à coup de hache par Martinez, un ex-détenu revanchard lors de l'attaque du thanatodrome parisien. Arrivé à la pesée de l'âme, il demande aux archanges de le réincarner en vigne alors que par son statut de grand initié il aurait pu obtenir une meilleure réincarnation.
-Amandine Ballus
-Elle rencontre les deux héros au pénitencier de Fleury-Merogis afin de pratiquer des expériences d'EMI sur les détenus. Elle ressemble à Grace Kelly, et aime le sexe, elle a une attirance pour les thanatonautes qui prennent des risques, notamment Felix Kerboz, Raoul Razorbak et Freddy Meyer avec lequel elle finit par se marier. Michael l'aime secrètement, ce qui n'est pas réciproque. Elle meurt dans l'accident du Boeing 747.
-Rose Solal
-Scientifique travaillant sur le Projet Eden, elle rejoint l'équipe des thanatonautes à mi chemin, et met au point un récepteur d'ondes qui lui permet de repérer les ondes émises par les ectoplasmes des thanatonautes. Rose et Michael terminent ensemble ; ce dernier ira la récupérer au paradis, à la montagne du jugement, elle donne par la suite naissance à Freddy junior au départ considéré comme sa réincarnation (à tort). Elle meurt dans l'accident du Boeing 747.
-Freddy Meyer
-Ancien chorégraphe qui est devenu juif et rabbin à la suite d'un accident de deltaplane qui l'a rendu aveugle, Freddy Meyer a un grand sens de l'humour, justifié par la fin de son cycle de réincarnation, et met en place la technique des cordons tressés, qui permettra à nos héros d'arriver au bout du royaume des morts. C'est aussi un courageux aventurier et un stratège hors pair dans la bataille du paradis. Marié à Amandine, Il finit par être tué par le vieux de la montagne, à la suite de la mission de sauvetage de Rose Solal.
-Le vieux de la montagne
-Chef de la secte des haschischins, et principal rival de Freddy Meyer, il organise un conflit d'ectoplasmes au paradis, il tue Freddy à la suite d'une embuscade fixée lors d'une opération de sauvetage (Rose), et finit lui-même tué par Amandine qui lui coupe le cordon ombilical.
-Stefania Chichelli
-Italienne de Montpellier, de confession bouddhiste, elle est la première à réussir à traverser le mur des plaisirs grâce à sa technique de méditation. De forte corpulence (qu'elle a su dépasser par son intelligence et la méditation) elle sait lire dans les âmes, et a une certaine connaissance du royaume des morts, qu'elle tire du Bardo Thodol. Elle s'amourache de Raoul Razorbak qui finit par quitter Amandine, puis finit elle-même par le quitter pour rejoindre un mouvement sataniste, considérant que le monde est devenu trop mièvre ; son attitude la conduira à assassiner son ex-compagnon. C'est la seule à avoir été épargnée de l'accident du Boeing, les anges considérant qu'elle s'est repentie.
-Conrad Pinson
-Frère adoptif de Michael, il est aussi le petit chouchou de sa maman, et passe son temps à taquiner son frère et réussit dans la vie. À la suite de l'essor de la thanatonautique, il s'occupe plutôt de l'aspect mercantile et spéculatif de l'affaire. Il perd son fils, qui se suicide en espérant une meilleure réincarnation, mais cela ne semble pas beaucoup l'affecter.
-Felix Kerboz
-Détenu de la prison de Fleury Merogis, plus malin et solide que les autres, il est le premier rescapé des expériences, et le premier thanatonaute en herbe, et se met en couple avec Amandine. Mais mal dans sa peau, et alcoolique chronique il décide de quitter ce monde en lui demandant de lui pardonner.
-Francis Razorbak
-C'est le père de Raoul, à la base de son goût pour l'univers des morts, à cause de son mystérieux suicide alors qu'il rédigeait « La mort, cette inconnue », dont on retrouve des articles régulièrement disséminés au travers de l'ouvrage un peu comme L'Encyclopédie du savoir relatif et absolu d'Edmond Wells. C'est en discutant avec Satan que Raoul découvre qu'en réalité, le suicide de son père a été provoqué par sa mère.
-Maxime Villain
-Reporter du petit thanatonaute illustré, doté d'une mémoire phénoménale, il est connu notamment pour avoir retranscrit la bataille du paradis, et avoir fait une interview d'une pesée d'une âme (l’interview de l’ectoplasme Donahue) dans la montagne du jugement. Il est aussi considéré comme un traitre par les archanges-juges et termine dans l'accident du Boeing.
-Jean Lucinder
-Président de la République française dans les années 2060, victime d'une tentative d'assassinat à l'âge de 58 ans alors qu'il faisait un bain de foule à Versailles. Cette tentative lui permet de faire l'expérience d'une EMI, qui le décide à s'aventurer dans le domaine du paranormal en faisant pratiquer des expériences au sein de la prison de Fleury-Merogis par Raoul Razorbak, Michael Pinson, et Amandine Ballus. Ce n'est pas un explorateur, seul son mandat l'intéresse, il utilise d'ailleurs l'argument du paradis pour être réélu (un mensonge bien évidemment). Il finit par se suicider, las de son existence.
-Benoit Mercassier
-Ministre de la recherche, Lucinder vient prendre conseil auprès de lui après sa tentative d'assassinat afin de réaliser des expériences sur les détenus du pénitencier de Fleury-Merogis. Il finit par démissionner et s'enfuit après la révélation des morts de la prison.
 </t>
         </is>
       </c>
@@ -630,14 +624,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Commentaires</t>
+          <t>Personnages</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Procédé récurrent chez Bernard Werber, le livre alterne les passages consacrés au fil conducteur de l'histoire et ceux composés de textes sacrés extraits des mythologies, religions et cosmogonies du monde entier, regroupés sous le nom d'« Extrait de la thèse La mort cette inconnue de Francis Razorbak ».
-Le livre est le premier volume du cycle des anges faisant lui même partie de la pentalogie du ciel. L'Empire des anges vient compléter le cycle. Le Cycle des Dieux clôt la trilogie et est lui-même publié en trois parties : Nous les dieux, Le Souffle des dieux et Le Mystère des dieux.
-Le roman s'intéresse au même thème que le film américain L'Expérience interdite, sorti quatre ans plus tôt[4].
+          <t>Raoul Razorbak</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfant, Raoul rencontre Michael Pinson au cimetière du Père-Lachaise à l'enterrement de son oncle Norbert alors qu'il est lui-même en train de se recueillir sur la tombe de son défunt père Francis Razorbak. Très cultivé, il lui fait découvrir la mythologie égyptienne ainsi que les joies de la lecture. Ils affrontent ensemble une secte de satanistes fréquentant le cimetière et décident d'explorer la mort en enquêtant au service gériatrique d'un hôpital. Son originalité lui vaut d'être le mouton noir de ses camarades. Par la suite, les deux amis se séparent alors une vingtaine d'années avant de se retrouver. Raoul est alors chercheur en biologie et pratique des expériences sur l'hibernation des marmottes. À la suite de la tentative d'assassinat du président Lucinder, il est engagé par celui-ci afin de mener des expériences sur les EMI sur les détenus de la prison de Fleury-Merogis.
+Il va sacrifier beaucoup de vies humaines avant de réussir, avec l'aide réticente de son ami Michael, et de la belle infirmière Amandine. Il a tout d'abord une liaison avec Amandine puis se marie avec Stefania lors d'une double cérémonie avec son ami Michael. Par des confidences de Satan, il découvre la raison du suicide de son père ainsi que des informations douloureuses sur le passé de Michael. Ne supportant pas ces confidences, il plonge profondément dans l'alcool. Stefania finit par le quitter pour ensuite rejoindre un mouvement sataniste. Il est finalement tué à coup de hache par Martinez, un ex-détenu revanchard lors de l'attaque du thanatodrome parisien. Arrivé à la pesée de l'âme, il demande aux archanges de le réincarner en vigne alors que par son statut de grand initié il aurait pu obtenir une meilleure réincarnation.
 </t>
         </is>
       </c>
@@ -663,10 +662,454 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Amandine Ballus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle rencontre les deux héros au pénitencier de Fleury-Merogis afin de pratiquer des expériences d'EMI sur les détenus. Elle ressemble à Grace Kelly, et aime le sexe, elle a une attirance pour les thanatonautes qui prennent des risques, notamment Felix Kerboz, Raoul Razorbak et Freddy Meyer avec lequel elle finit par se marier. Michael l'aime secrètement, ce qui n'est pas réciproque. Elle meurt dans l'accident du Boeing 747.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Rose Solal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scientifique travaillant sur le Projet Eden, elle rejoint l'équipe des thanatonautes à mi chemin, et met au point un récepteur d'ondes qui lui permet de repérer les ondes émises par les ectoplasmes des thanatonautes. Rose et Michael terminent ensemble ; ce dernier ira la récupérer au paradis, à la montagne du jugement, elle donne par la suite naissance à Freddy junior au départ considéré comme sa réincarnation (à tort). Elle meurt dans l'accident du Boeing 747.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Freddy Meyer</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien chorégraphe qui est devenu juif et rabbin à la suite d'un accident de deltaplane qui l'a rendu aveugle, Freddy Meyer a un grand sens de l'humour, justifié par la fin de son cycle de réincarnation, et met en place la technique des cordons tressés, qui permettra à nos héros d'arriver au bout du royaume des morts. C'est aussi un courageux aventurier et un stratège hors pair dans la bataille du paradis. Marié à Amandine, Il finit par être tué par le vieux de la montagne, à la suite de la mission de sauvetage de Rose Solal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le vieux de la montagne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chef de la secte des haschischins, et principal rival de Freddy Meyer, il organise un conflit d'ectoplasmes au paradis, il tue Freddy à la suite d'une embuscade fixée lors d'une opération de sauvetage (Rose), et finit lui-même tué par Amandine qui lui coupe le cordon ombilical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Stefania Chichelli</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Italienne de Montpellier, de confession bouddhiste, elle est la première à réussir à traverser le mur des plaisirs grâce à sa technique de méditation. De forte corpulence (qu'elle a su dépasser par son intelligence et la méditation) elle sait lire dans les âmes, et a une certaine connaissance du royaume des morts, qu'elle tire du Bardo Thodol. Elle s'amourache de Raoul Razorbak qui finit par quitter Amandine, puis finit elle-même par le quitter pour rejoindre un mouvement sataniste, considérant que le monde est devenu trop mièvre ; son attitude la conduira à assassiner son ex-compagnon. C'est la seule à avoir été épargnée de l'accident du Boeing, les anges considérant qu'elle s'est repentie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conrad Pinson</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frère adoptif de Michael, il est aussi le petit chouchou de sa maman, et passe son temps à taquiner son frère et réussit dans la vie. À la suite de l'essor de la thanatonautique, il s'occupe plutôt de l'aspect mercantile et spéculatif de l'affaire. Il perd son fils, qui se suicide en espérant une meilleure réincarnation, mais cela ne semble pas beaucoup l'affecter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Felix Kerboz</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Détenu de la prison de Fleury Merogis, plus malin et solide que les autres, il est le premier rescapé des expériences, et le premier thanatonaute en herbe, et se met en couple avec Amandine. Mais mal dans sa peau, et alcoolique chronique il décide de quitter ce monde en lui demandant de lui pardonner.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Francis Razorbak</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le père de Raoul, à la base de son goût pour l'univers des morts, à cause de son mystérieux suicide alors qu'il rédigeait « La mort, cette inconnue », dont on retrouve des articles régulièrement disséminés au travers de l'ouvrage un peu comme L'Encyclopédie du savoir relatif et absolu d'Edmond Wells. C'est en discutant avec Satan que Raoul découvre qu'en réalité, le suicide de son père a été provoqué par sa mère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Maxime Villain</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reporter du petit thanatonaute illustré, doté d'une mémoire phénoménale, il est connu notamment pour avoir retranscrit la bataille du paradis, et avoir fait une interview d'une pesée d'une âme (l’interview de l’ectoplasme Donahue) dans la montagne du jugement. Il est aussi considéré comme un traitre par les archanges-juges et termine dans l'accident du Boeing.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jean Lucinder</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Président de la République française dans les années 2060, victime d'une tentative d'assassinat à l'âge de 58 ans alors qu'il faisait un bain de foule à Versailles. Cette tentative lui permet de faire l'expérience d'une EMI, qui le décide à s'aventurer dans le domaine du paranormal en faisant pratiquer des expériences au sein de la prison de Fleury-Merogis par Raoul Razorbak, Michael Pinson, et Amandine Ballus. Ce n'est pas un explorateur, seul son mandat l'intéresse, il utilise d'ailleurs l'argument du paradis pour être réélu (un mensonge bien évidemment). Il finit par se suicider, las de son existence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Benoit Mercassier</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ministre de la recherche, Lucinder vient prendre conseil auprès de lui après sa tentative d'assassinat afin de réaliser des expériences sur les détenus du pénitencier de Fleury-Merogis. Il finit par démissionner et s'enfuit après la révélation des morts de la prison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Commentaires</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Procédé récurrent chez Bernard Werber, le livre alterne les passages consacrés au fil conducteur de l'histoire et ceux composés de textes sacrés extraits des mythologies, religions et cosmogonies du monde entier, regroupés sous le nom d'« Extrait de la thèse La mort cette inconnue de Francis Razorbak ».
+Le livre est le premier volume du cycle des anges faisant lui même partie de la pentalogie du ciel. L'Empire des anges vient compléter le cycle. Le Cycle des Dieux clôt la trilogie et est lui-même publié en trois parties : Nous les dieux, Le Souffle des dieux et Le Mystère des dieux.
+Le roman s'intéresse au même thème que le film américain L'Expérience interdite, sorti quatre ans plus tôt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Thanatonautes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Bande dessinée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Le roman est adapté en bande dessinée, dont trois tomes sont sortis : 
 Le Temps des bricoleurs, 2011.
